--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EFA39263-E41C-8B49-A693-BFBD23A00C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAED5C-340D-1049-8760-9A41A564B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$R$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
   <si>
     <t>run name</t>
   </si>
@@ -207,6 +206,12 @@
   </si>
   <si>
     <t>warmup</t>
+  </si>
+  <si>
+    <t>v20240626144212</t>
+  </si>
+  <si>
+    <t>skf-5-42</t>
   </si>
 </sst>
 </file>
@@ -1068,16 +1073,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1181,7 +1186,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="P2">
-        <f>N2-O2</f>
+        <f t="shared" ref="P2:P11" si="0">N2-O2</f>
         <v>1.741017899999997E-2</v>
       </c>
       <c r="Q2" t="s">
@@ -1235,7 +1240,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="P3">
-        <f>N3-O3</f>
+        <f t="shared" si="0"/>
         <v>1.741017899999997E-2</v>
       </c>
       <c r="Q3" t="s">
@@ -1289,7 +1294,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="P4">
-        <f>N4-O4</f>
+        <f t="shared" si="0"/>
         <v>2.0053468999999935E-2</v>
       </c>
       <c r="Q4" t="s">
@@ -1343,7 +1348,7 @@
         <v>0.8</v>
       </c>
       <c r="P5">
-        <f>N5-O5</f>
+        <f t="shared" si="0"/>
         <v>2.3134663999999971E-2</v>
       </c>
       <c r="Q5" t="s">
@@ -1397,7 +1402,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="P6">
-        <f>N6-O6</f>
+        <f t="shared" si="0"/>
         <v>2.7144897840877924E-2</v>
       </c>
     </row>
@@ -1445,7 +1450,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="P7">
-        <f>N7-O7</f>
+        <f t="shared" si="0"/>
         <v>2.8144897840877925E-2</v>
       </c>
     </row>
@@ -1493,7 +1498,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="P8">
-        <f>N8-O8</f>
+        <f t="shared" si="0"/>
         <v>3.1403218999999982E-2</v>
       </c>
       <c r="R8" t="s">
@@ -1544,7 +1549,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="P9">
-        <f>N9-O9</f>
+        <f t="shared" si="0"/>
         <v>3.2704222999999977E-2</v>
       </c>
       <c r="R9" t="s">
@@ -1595,7 +1600,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="P10">
-        <f>N10-O10</f>
+        <f t="shared" si="0"/>
         <v>3.6418220816389901E-2</v>
       </c>
     </row>
@@ -1643,7 +1648,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="P11">
-        <f>N11-O11</f>
+        <f t="shared" si="0"/>
         <v>9.1310683000000004E-2</v>
       </c>
       <c r="Q11" t="s">
@@ -1777,6 +1782,47 @@
       </c>
       <c r="N14">
         <v>0.83601613901859195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>20230310</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAED5C-340D-1049-8760-9A41A564B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C129D6D-F292-8347-84AD-23CD3DC4649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$R$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
   <si>
     <t>run name</t>
   </si>
@@ -212,6 +213,9 @@
   </si>
   <si>
     <t>skf-5-42</t>
+  </si>
+  <si>
+    <t>external</t>
   </si>
 </sst>
 </file>
@@ -1073,761 +1077,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.82041017900000002</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.80300000000000005</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P11" si="0">N2-O2</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q11" si="0">O2-P2</f>
         <v>1.741017899999997E-2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.82041017900000002</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.80300000000000005</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>1.741017899999997E-2</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>24</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.82805346899999999</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.80800000000000005</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>2.0053468999999935E-2</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.82313466400000002</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>2.3134663999999971E-2</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
       <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.82414489784087797</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.79700000000000004</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>2.7144897840877924E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.82414489784087797</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.79600000000000004</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>2.8144897840877925E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
       <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.82940321900000002</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>3.1403218999999982E-2</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
       <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
         <v>24</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.83370422300000002</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.80100000000000005</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>3.2704222999999977E-2</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>24</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.83941822081638995</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.80300000000000005</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>3.6418220816389901E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
         <v>24</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.88531068300000004</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.79400000000000004</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>9.1310683000000004E-2</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>34</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>47</v>
       </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
       <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
         <v>24</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.81754494412921697</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>49</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
       <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
         <v>24</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.823401017557291</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>24</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.83601613901859195</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>20230310</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>54</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
       <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
         <v>24</v>
+      </c>
+      <c r="O15">
+        <v>0.82922001347640695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>20230310</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>0.83539571957582004</v>
+      </c>
+      <c r="P16">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T14">
-    <sortCondition ref="R2:R14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U14">
+    <sortCondition ref="S2:S14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C129D6D-F292-8347-84AD-23CD3DC4649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FB59E-3257-F642-B02A-8FE58013F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1927,6 +1927,10 @@
       <c r="P16">
         <v>0.8</v>
       </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="1">O16-P16</f>
+        <v>3.5395719575819995E-2</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U14">

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FB59E-3257-F642-B02A-8FE58013F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07033E0E-0D30-9B4E-8C85-5F6201E80FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
   <si>
     <t>run name</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>external</t>
+  </si>
+  <si>
+    <t>v20240628133321</t>
+  </si>
+  <si>
+    <t>0e733758b49f26cdab8e1fa63a4f13f12f632508</t>
+  </si>
+  <si>
+    <t>1536/1536</t>
   </si>
 </sst>
 </file>
@@ -699,9 +708,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1077,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,6 +1942,38 @@
         <v>3.5395719575819995E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U14">
     <sortCondition ref="S2:S14"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07033E0E-0D30-9B4E-8C85-5F6201E80FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E599FB-5E75-5D44-BE9C-61458D7339FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
+    <sheet name="charge" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
@@ -1089,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,4 +1981,16 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E599FB-5E75-5D44-BE9C-61458D7339FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB50370-EC56-9142-B7F3-92AAC808197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
   <si>
     <t>run name</t>
   </si>
@@ -226,6 +225,27 @@
   </si>
   <si>
     <t>1536/1536</t>
+  </si>
+  <si>
+    <t>c62429ece4a9ac7417a635f5932dae136bdd8f6d</t>
+  </si>
+  <si>
+    <t>v20240628210409</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>reinitialize_n_layers_of_backbone</t>
+  </si>
+  <si>
+    <t>llrd</t>
+  </si>
+  <si>
+    <t>adamw-forgot-wd</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1111,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,12 +2005,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="88.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>20230310</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB50370-EC56-9142-B7F3-92AAC808197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010EABD-1DC5-E542-ABE4-7546FBA3BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>run name</t>
   </si>
@@ -236,6 +236,9 @@
     <t>optimizer</t>
   </si>
   <si>
+    <t>adamw</t>
+  </si>
+  <si>
     <t>epochs</t>
   </si>
   <si>
@@ -245,7 +248,7 @@
     <t>llrd</t>
   </si>
   <si>
-    <t>adamw-forgot-wd</t>
+    <t>SmoothL1WithMSE</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2011,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2028,7 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -2055,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2082,10 +2085,10 @@
         <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -2147,10 +2150,10 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>1</v>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010EABD-1DC5-E542-ABE4-7546FBA3BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC79AD1-6957-D441-9C8D-F20CAB53A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
   <si>
     <t>run name</t>
   </si>
@@ -227,12 +227,6 @@
     <t>1536/1536</t>
   </si>
   <si>
-    <t>c62429ece4a9ac7417a635f5932dae136bdd8f6d</t>
-  </si>
-  <si>
-    <t>v20240628210409</t>
-  </si>
-  <si>
     <t>optimizer</t>
   </si>
   <si>
@@ -248,7 +242,13 @@
     <t>llrd</t>
   </si>
   <si>
-    <t>SmoothL1WithMSE</t>
+    <t>smooth_l1_with_mse</t>
+  </si>
+  <si>
+    <t>21426b1ec78e8c314e3755072501bcc6116de335</t>
+  </si>
+  <si>
+    <t>v20240628221715/exp1-20240628221709</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2028,7 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2082,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -2150,13 +2150,13 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -2168,10 +2168,7 @@
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC79AD1-6957-D441-9C8D-F20CAB53A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E107D-93EC-9B43-A8B3-C99C22556C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E107D-93EC-9B43-A8B3-C99C22556C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7C1AD-9CFD-3E4A-8CF8-C1F37CD4911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
   <si>
     <t>run name</t>
   </si>
@@ -242,13 +243,16 @@
     <t>llrd</t>
   </si>
   <si>
-    <t>smooth_l1_with_mse</t>
-  </si>
-  <si>
-    <t>21426b1ec78e8c314e3755072501bcc6116de335</t>
-  </si>
-  <si>
-    <t>v20240628221715/exp1-20240628221709</t>
+    <t>13d8ed93b6ad64c9ef8e6acc4bfd7e97b69971b0</t>
+  </si>
+  <si>
+    <t>2292608efa6b040a7afe28e968ee78e1668b908e</t>
+  </si>
+  <si>
+    <t>deberta-small-mh</t>
+  </si>
+  <si>
+    <t>custom_group</t>
   </si>
 </sst>
 </file>
@@ -2008,15 +2012,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -2025,23 +2029,24 @@
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2085,45 +2090,48 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
         <v>67</v>
       </c>
       <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2">
-        <v>20230310</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -2141,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -2150,25 +2158,78 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O2" t="s">
+        <v>21</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7C1AD-9CFD-3E4A-8CF8-C1F37CD4911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9563CBB-C05D-4E4F-A798-B423FDC26A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="76">
   <si>
     <t>run name</t>
   </si>
@@ -243,6 +243,9 @@
     <t>llrd</t>
   </si>
   <si>
+    <t>smooth_l1_with_mse</t>
+  </si>
+  <si>
     <t>13d8ed93b6ad64c9ef8e6acc4bfd7e97b69971b0</t>
   </si>
   <si>
@@ -253,6 +256,15 @@
   </si>
   <si>
     <t>custom_group</t>
+  </si>
+  <si>
+    <t>2753005b2fc585523443e9782bb221d6a60eb98e</t>
+  </si>
+  <si>
+    <t>deberta-small</t>
+  </si>
+  <si>
+    <t>oof/threshold</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2042,11 +2054,10 @@
     <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
         <v>67</v>
@@ -2105,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="T1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="U1" t="s">
         <v>12</v>
@@ -2114,15 +2125,12 @@
         <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -2149,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -2176,9 +2184,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2205,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -2229,6 +2237,62 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9563CBB-C05D-4E4F-A798-B423FDC26A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DED757-6674-F14E-9505-152C6F152112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
   <si>
     <t>run name</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>oof/threshold</t>
+  </si>
+  <si>
+    <t>0.825399/0.831515</t>
+  </si>
+  <si>
+    <t>e7252175db43cb81c54949ff8930093d8a0be212</t>
   </si>
 </sst>
 </file>
@@ -748,10 +754,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2024,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2051,7 +2060,7 @@
     <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="88.1640625" bestFit="1" customWidth="1"/>
@@ -2183,6 +2192,9 @@
       <c r="S2" t="s">
         <v>24</v>
       </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2295,6 +2307,17 @@
       <c r="S4" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DED757-6674-F14E-9505-152C6F152112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B09AE-574C-B94C-9423-3FB22B636DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="79">
   <si>
     <t>run name</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>e7252175db43cb81c54949ff8930093d8a0be212</t>
+  </si>
+  <si>
+    <t>d3a40ce3589129af597d173e0f3a11e6004697b1</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2039,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2189,11 +2192,17 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
       <c r="S2" t="s">
         <v>24</v>
       </c>
       <c r="T2" t="s">
         <v>76</v>
+      </c>
+      <c r="U2">
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2312,8 +2321,112 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
       <c r="Q5">
         <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B09AE-574C-B94C-9423-3FB22B636DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4247F-E581-6E44-93B8-B5EF3409C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
   <si>
     <t>run name</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>d3a40ce3589129af597d173e0f3a11e6004697b1</t>
+  </si>
+  <si>
+    <t>e6d7324de223be559551c03df42eb0e173eb37de</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1145,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2042,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,7 +2058,7 @@
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" customWidth="1"/>
@@ -2429,6 +2432,115 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3"/>
     </row>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4247F-E581-6E44-93B8-B5EF3409C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291CA37-9B4C-DC4E-8507-F72F20DFFF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
   <si>
     <t>run name</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>e6d7324de223be559551c03df42eb0e173eb37de</t>
+  </si>
+  <si>
+    <t>0d41b7c2efee6878a46decf55236f14f90cd62bd</t>
+  </si>
+  <si>
+    <t>deberta-base-mh</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2048,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2237,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -2489,6 +2495,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -2540,6 +2549,9 @@
       <c r="S8" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291CA37-9B4C-DC4E-8507-F72F20DFFF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83355ABC-0878-3645-9CBB-45290867BEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
   <si>
     <t>run name</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>deberta-base-mh</t>
+  </si>
+  <si>
+    <t>e765ec574fee876d1afc6e7a1fdbf0ebc1bb8ae5</t>
+  </si>
+  <si>
+    <t>deberta-large-mh</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2054,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2557,60 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83355ABC-0878-3645-9CBB-45290867BEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA2588-DA73-4A47-A535-9E0D86A2B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA2588-DA73-4A47-A535-9E0D86A2B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8C477-1CC1-B641-BD41-518F0746998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="85">
   <si>
     <t>run name</t>
   </si>
@@ -289,6 +288,9 @@
   </si>
   <si>
     <t>deberta-large-mh</t>
+  </si>
+  <si>
+    <t>e7ad5e4da0df40bd9cb768557d739f4b94860889</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2056,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2612,6 +2614,59 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <v>0.95</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3"/>
     </row>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8C477-1CC1-B641-BD41-518F0746998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783D59FD-1AB1-DB49-9314-B198A23AF93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="88">
   <si>
     <t>run name</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>e7ad5e4da0df40bd9cb768557d739f4b94860889</t>
+  </si>
+  <si>
+    <t>9f7e09e7d982171f4d33fea8872452fb5b946eca</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>no-freeze-embeddings/[0,1]</t>
   </si>
 </sst>
 </file>
@@ -2053,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2078,15 +2087,16 @@
     <col min="15" max="15" width="8.83203125" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2139,25 +2149,28 @@
         <v>66</v>
       </c>
       <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2210,19 +2223,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>76</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2274,11 +2290,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2330,11 +2349,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2386,11 +2408,14 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2442,11 +2467,14 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2498,11 +2526,14 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="S7" t="s">
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2554,11 +2585,14 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="S8" t="s">
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2610,11 +2644,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2666,9 +2703,66 @@
       <c r="Q10">
         <v>1</v>
       </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S11" s="3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>0.95</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783D59FD-1AB1-DB49-9314-B198A23AF93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531EA14-37D9-C04E-B0E8-836525E880D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
   <si>
     <t>run name</t>
   </si>
@@ -293,13 +293,13 @@
     <t>e7ad5e4da0df40bd9cb768557d739f4b94860889</t>
   </si>
   <si>
-    <t>9f7e09e7d982171f4d33fea8872452fb5b946eca</t>
-  </si>
-  <si>
     <t>freeze</t>
   </si>
   <si>
     <t>no-freeze-embeddings/[0,1]</t>
+  </si>
+  <si>
+    <t>457fee939181d8ac08111c2bea4ec52fefb18b43</t>
   </si>
 </sst>
 </file>
@@ -787,9 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2065,7 +2063,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2085,7 +2083,7 @@
     <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.83203125" customWidth="1"/>
     <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -2142,14 +2140,14 @@
       <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="Q1" t="s">
         <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
         <v>9</v>
@@ -2216,7 +2214,7 @@
       <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q2">
@@ -2284,7 +2282,7 @@
       <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q3">
@@ -2343,7 +2341,7 @@
       <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q4">
@@ -2402,7 +2400,7 @@
       <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q5">
@@ -2461,7 +2459,7 @@
       <c r="O6" t="s">
         <v>21</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q6">
@@ -2520,7 +2518,7 @@
       <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q7">
@@ -2579,7 +2577,7 @@
       <c r="O8" t="s">
         <v>21</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q8">
@@ -2638,7 +2636,7 @@
       <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q9">
@@ -2697,7 +2695,7 @@
       <c r="O10" t="s">
         <v>36</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>0.95</v>
       </c>
       <c r="Q10">
@@ -2705,11 +2703,14 @@
       </c>
       <c r="R10" t="s">
         <v>21</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2753,16 +2754,18 @@
       <c r="O11" t="s">
         <v>36</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0.95</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531EA14-37D9-C04E-B0E8-836525E880D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD12C0C-3F6F-EE4E-9D6C-FB689A8641F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="90">
   <si>
     <t>run name</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>457fee939181d8ac08111c2bea4ec52fefb18b43</t>
+  </si>
+  <si>
+    <t>0e75f65cad5918cad9d809f91cde5de63bc43638</t>
+  </si>
+  <si>
+    <t>deberta-base</t>
   </si>
 </sst>
 </file>
@@ -2060,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2767,6 +2773,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD12C0C-3F6F-EE4E-9D6C-FB689A8641F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE9DC7-04F3-0846-89D6-3D500E59A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="90">
   <si>
     <t>run name</t>
   </si>
@@ -263,12 +264,6 @@
     <t>deberta-small</t>
   </si>
   <si>
-    <t>oof/threshold</t>
-  </si>
-  <si>
-    <t>0.825399/0.831515</t>
-  </si>
-  <si>
     <t>e7252175db43cb81c54949ff8930093d8a0be212</t>
   </si>
   <si>
@@ -306,6 +301,12 @@
   </si>
   <si>
     <t>deberta-base</t>
+  </si>
+  <si>
+    <t>9f57a7628353412c3313edaffd732e2775130d97</t>
+  </si>
+  <si>
+    <t>deberta-large</t>
   </si>
 </sst>
 </file>
@@ -448,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +627,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,11 +796,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2066,10 +2074,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,12 +2104,13 @@
     <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
         <v>9</v>
@@ -2162,21 +2172,24 @@
         <v>10</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -2203,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -2212,7 +2225,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
@@ -2229,22 +2242,19 @@
       <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
-        <v>76</v>
+      <c r="U2">
+        <v>0.82213017302515001</v>
       </c>
       <c r="V2">
-        <v>0.80500000000000005</v>
+        <v>0.82838484814624902</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2271,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -2280,7 +2290,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
@@ -2292,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>21</v>
@@ -2300,10 +2310,16 @@
       <c r="T3" t="s">
         <v>24</v>
       </c>
+      <c r="U3">
+        <v>0.82215571649418995</v>
+      </c>
+      <c r="V3">
+        <v>0.82877975010488003</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2339,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
         <v>64</v>
@@ -2351,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="s">
         <v>21</v>
@@ -2359,10 +2375,16 @@
       <c r="T4" t="s">
         <v>24</v>
       </c>
+      <c r="U4">
+        <v>0.82225694830649898</v>
+      </c>
+      <c r="V4">
+        <v>0.82890999984462999</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2395,33 +2417,39 @@
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
         <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.95</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
       </c>
+      <c r="U5">
+        <v>0.82353655373611601</v>
+      </c>
+      <c r="V5">
+        <v>0.83297147411906602</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -2454,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -2463,10 +2491,10 @@
         <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.95</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2477,10 +2505,16 @@
       <c r="T6" t="s">
         <v>24</v>
       </c>
+      <c r="U6">
+        <v>0.82517209325882801</v>
+      </c>
+      <c r="V6">
+        <v>0.83312481449855502</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2507,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -2528,18 +2562,30 @@
         <v>21</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="s">
         <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
       </c>
       <c r="T7" t="s">
         <v>24</v>
       </c>
+      <c r="U7">
+        <v>0.825399216993006</v>
+      </c>
+      <c r="V7">
+        <v>0.831515</v>
+      </c>
+      <c r="W7">
+        <v>0.80500000000000005</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2572,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -2595,10 +2641,16 @@
       <c r="T8" t="s">
         <v>24</v>
       </c>
+      <c r="U8">
+        <v>0.82730551078039705</v>
+      </c>
+      <c r="V8">
+        <v>0.83483244859028205</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2625,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -2646,7 +2698,7 @@
         <v>21</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>21</v>
@@ -2654,10 +2706,16 @@
       <c r="T9" t="s">
         <v>24</v>
       </c>
+      <c r="U9">
+        <v>0.82806189199460301</v>
+      </c>
+      <c r="V9">
+        <v>0.83676393265715898</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -2684,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -2699,13 +2757,13 @@
         <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
         <v>21</v>
@@ -2713,10 +2771,16 @@
       <c r="T10" t="s">
         <v>24</v>
       </c>
+      <c r="U10">
+        <v>0.828107174037225</v>
+      </c>
+      <c r="V10">
+        <v>0.83291418318209398</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2743,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
@@ -2758,24 +2822,30 @@
         <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s">
         <v>24</v>
       </c>
+      <c r="U11">
+        <v>0.83010336141691399</v>
+      </c>
+      <c r="V11">
+        <v>0.837250164322352</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -2802,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -2826,13 +2896,81 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T12" t="s">
         <v>24</v>
       </c>
+      <c r="U12">
+        <v>0.83154189047763805</v>
+      </c>
+      <c r="V12">
+        <v>0.83808171172941703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y13">
+    <sortCondition ref="U2:U13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE9DC7-04F3-0846-89D6-3D500E59A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213C20A1-BD08-C047-A64D-CD057EDBAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
   <si>
     <t>run name</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>deberta-large</t>
+  </si>
+  <si>
+    <t>d490addd534d11ffd6f4546679b7acc793bc461e</t>
+  </si>
+  <si>
+    <t>freeze-embeddings/[0,1]</t>
   </si>
 </sst>
 </file>
@@ -2074,11 +2080,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S14" sqref="S14"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2967,6 +2973,97 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y13">
     <sortCondition ref="U2:U13"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213C20A1-BD08-C047-A64D-CD057EDBAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F01D269-43B3-9845-88E1-6DEF8FA4DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
   <si>
     <t>run name</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>freeze-embeddings/[0,1]</t>
+  </si>
+  <si>
+    <t>3f2863392aaba51b345d213863ca061159fa636e</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3021,6 +3024,9 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
       <c r="F15">
         <v>5</v>
       </c>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F01D269-43B3-9845-88E1-6DEF8FA4DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CEFCE5-47A8-8E4A-8C7F-11E312434F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="93">
   <si>
     <t>run name</t>
   </si>
@@ -315,14 +315,14 @@
     <t>freeze-embeddings/[0,1]</t>
   </si>
   <si>
-    <t>3f2863392aaba51b345d213863ca061159fa636e</t>
+    <t>ffa49009a36ef29244f6f4b6efccdd7c94d6a7a2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +453,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -805,12 +812,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2086,8 +2096,8 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>
@@ -2278,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -2343,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
@@ -2408,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -2473,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -2609,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
@@ -2674,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
@@ -2869,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
@@ -2918,7 +2928,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B13" t="s">
@@ -2934,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
@@ -2980,8 +2990,20 @@
       <c r="A14" t="s">
         <v>90</v>
       </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -3027,11 +3049,23 @@
       <c r="A15" t="s">
         <v>92</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -3066,8 +3100,8 @@
       <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="T15" t="s">
-        <v>24</v>
+      <c r="T15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CEFCE5-47A8-8E4A-8C7F-11E312434F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C03F5-C3C2-A444-B901-DC84A16EB738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="94">
   <si>
     <t>run name</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>ffa49009a36ef29244f6f4b6efccdd7c94d6a7a2</t>
+  </si>
+  <si>
+    <t>f27b10c2fdc1c88531b434779d420f0b095ad3c7</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1707,57 +1710,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>0.1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10">
-        <v>0.83941822081638995</v>
-      </c>
-      <c r="P10">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>3.6418220816389901E-2</v>
-      </c>
-    </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
@@ -2081,6 +2033,57 @@
       </c>
       <c r="R17" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>0.83941822081638995</v>
+      </c>
+      <c r="P21">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="Q21">
+        <f>O21-P21</f>
+        <v>3.6418220816389901E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2093,11 +2096,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3104,6 +3107,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y13">
     <sortCondition ref="U2:U13"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C03F5-C3C2-A444-B901-DC84A16EB738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BFED1-49E1-3349-9B9B-BE1CD8BE6B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="charge" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exp!$A$1:$S$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="89">
   <si>
     <t>run name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>https://www.kaggle.com/code/reighns/v20240623204604-all-folds-inference?scriptVersionId=185196965</t>
   </si>
   <si>
-    <t>v20240624231703</t>
-  </si>
-  <si>
     <t>skf-5</t>
   </si>
   <si>
@@ -144,15 +141,9 @@
     <t>6c06a4bdcc0faad853a04eaa48d044ac7440d186</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/code/reighns/v20240624231703-all-folds-inference?scriptVersionId=185266778</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/code/janderchu/v20240624231703-fix-threshold-bug?scriptVersionId=185295398</t>
-  </si>
-  <si>
     <t>v20240625063058</t>
   </si>
   <si>
@@ -162,12 +153,6 @@
     <t>https://www.kaggle.com/code/reighns/new-deberta-inference-reg-cls?scriptVersionId=185272445</t>
   </si>
   <si>
-    <t>1024/4096</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/reighns/v20240624231703-all-folds-inference?scriptVersionId=185276234</t>
-  </si>
-  <si>
     <t>v20240625074424</t>
   </si>
   <si>
@@ -195,24 +180,15 @@
     <t>gem</t>
   </si>
   <si>
-    <t>v20240626001626</t>
-  </si>
-  <si>
     <t>seed</t>
   </si>
   <si>
-    <t>deberta large</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>warmup</t>
   </si>
   <si>
-    <t>v20240626144212</t>
-  </si>
-  <si>
     <t>skf-5-42</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>epochs</t>
   </si>
   <si>
-    <t>reinitialize_n_layers_of_backbone</t>
-  </si>
-  <si>
     <t>llrd</t>
   </si>
   <si>
@@ -318,7 +291,19 @@
     <t>ffa49009a36ef29244f6f4b6efccdd7c94d6a7a2</t>
   </si>
   <si>
-    <t>f27b10c2fdc1c88531b434779d420f0b095ad3c7</t>
+    <t>v20240626001626-c455d7416ba71af0983e647b4499ba9721cc3a99</t>
+  </si>
+  <si>
+    <t>reinitialize</t>
+  </si>
+  <si>
+    <t>lb (thres)</t>
+  </si>
+  <si>
+    <t>v20240626144212-b67acf4b5e42cd84ddab3b27e03df63f5b3f9faf</t>
+  </si>
+  <si>
+    <t>v20240624231703-6c06a4bdcc0faad853a04eaa48d044ac7440d186</t>
   </si>
 </sst>
 </file>
@@ -815,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -823,7 +808,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1199,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F76D8C-2FC8-5B40-BDBB-EAFF2E514664}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1236,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1263,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
         <v>13</v>
@@ -1272,186 +1265,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2">
-        <v>0.82041017900000002</v>
-      </c>
-      <c r="P2">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q11" si="0">O2-P2</f>
-        <v>1.741017899999997E-2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3">
-        <v>0.82041017900000002</v>
-      </c>
-      <c r="P3">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>1.741017899999997E-2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>0.82805346899999999</v>
-      </c>
-      <c r="P4">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>2.0053468999999935E-2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1460,13 +1282,13 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -1490,25 +1312,25 @@
         <v>0.8</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f>O5-P5</f>
         <v>2.3134663999999971E-2</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1517,19 +1339,19 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1547,19 +1369,19 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f>O6-P6</f>
         <v>2.7144897840877924E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1568,25 +1390,25 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -1598,7 +1420,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f>O7-P7</f>
         <v>2.8144897840877925E-2</v>
       </c>
     </row>
@@ -1649,7 +1471,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f>O8-P8</f>
         <v>3.1403218999999982E-2</v>
       </c>
       <c r="S8" t="s">
@@ -1703,22 +1525,79 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f>O9-P9</f>
         <v>3.2704222999999977E-2</v>
       </c>
       <c r="S9" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>0.88531068300000004</v>
+      </c>
+      <c r="P10">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="Q10">
+        <f>O10-P10</f>
+        <v>9.1310683000000004E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1727,13 +1606,13 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1742,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
@@ -1751,31 +1630,21 @@
         <v>24</v>
       </c>
       <c r="O11">
-        <v>0.88531068300000004</v>
-      </c>
-      <c r="P11">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>9.1310683000000004E-2</v>
+        <v>0.81754494412921697</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1784,22 +1653,22 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
         <v>23</v>
@@ -1808,287 +1677,44 @@
         <v>24</v>
       </c>
       <c r="O12">
-        <v>0.81754494412921697</v>
-      </c>
-      <c r="R12" t="s">
-        <v>44</v>
+        <v>0.823401017557291</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>32</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13">
-        <v>0.823401017557291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
         <v>54</v>
       </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14">
-        <v>0.83601613901859195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>20230310</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15">
-        <v>0.82922001347640695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>20230310</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16">
-        <v>0.83539571957582004</v>
-      </c>
-      <c r="P16">
+      <c r="P13">
         <v>0.8</v>
       </c>
-      <c r="Q16">
-        <f t="shared" ref="Q16" si="1">O16-P16</f>
-        <v>3.5395719575819995E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17">
-        <v>0.8</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21">
-        <v>0.83941822081638995</v>
-      </c>
-      <c r="P21">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="Q21">
-        <f>O21-P21</f>
-        <v>3.6418220816389901E-2</v>
+      <c r="R13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U14">
-    <sortCondition ref="S2:S14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U12">
+    <sortCondition ref="S2:S12"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2096,22 +1722,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
@@ -2121,44 +1747,43 @@
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" customWidth="1"/>
     <col min="16" max="16" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.83203125" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -2173,51 +1798,48 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -2228,17 +1850,17 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
+      <c r="G2" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -2247,10 +1869,10 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
@@ -2264,25 +1886,31 @@
       <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>24</v>
       </c>
+      <c r="T2">
+        <v>0.82041017900000002</v>
+      </c>
       <c r="U2">
-        <v>0.82213017302515001</v>
+        <v>0.82805346899999999</v>
       </c>
       <c r="V2">
-        <v>0.82838484814624902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="W2">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>42</v>
@@ -2293,17 +1921,17 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
+      <c r="G3" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -2312,10 +1940,10 @@
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -2324,30 +1952,30 @@
         <v>21</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>24</v>
       </c>
+      <c r="T3">
+        <v>0.82213017302515001</v>
+      </c>
       <c r="U3">
-        <v>0.82215571649418995</v>
-      </c>
-      <c r="V3">
-        <v>0.82877975010488003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.82838484814624902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>42</v>
@@ -2358,17 +1986,17 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+      <c r="G4" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -2377,10 +2005,10 @@
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
@@ -2394,25 +2022,25 @@
       <c r="R4" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>24</v>
       </c>
+      <c r="T4">
+        <v>0.82215571649418995</v>
+      </c>
       <c r="U4">
-        <v>0.82225694830649898</v>
-      </c>
-      <c r="V4">
-        <v>0.82890999984462999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.82877975010488003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>42</v>
@@ -2423,61 +2051,61 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
+      <c r="G5" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
         <v>24</v>
       </c>
+      <c r="T5">
+        <v>0.82225694830649898</v>
+      </c>
       <c r="U5">
-        <v>0.82353655373611601</v>
-      </c>
-      <c r="V5">
-        <v>0.83297147411906602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.82890999984462999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>42</v>
@@ -2486,63 +2114,66 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>24</v>
       </c>
+      <c r="T6">
+        <v>0.825399216993006</v>
+      </c>
       <c r="U6">
-        <v>0.82517209325882801</v>
-      </c>
-      <c r="V6">
-        <v>0.83312481449855502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.831515</v>
+      </c>
+      <c r="W6">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>42</v>
@@ -2553,17 +2184,17 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
+      <c r="G7" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -2575,7 +2206,7 @@
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
@@ -2590,30 +2221,24 @@
         <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s">
         <v>24</v>
       </c>
+      <c r="T7">
+        <v>0.828107174037225</v>
+      </c>
       <c r="U7">
-        <v>0.825399216993006</v>
-      </c>
-      <c r="V7">
-        <v>0.831515</v>
-      </c>
-      <c r="W7">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.83291418318209398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>42</v>
@@ -2624,61 +2249,61 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
+      <c r="G8" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.95</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s">
         <v>24</v>
       </c>
+      <c r="T8">
+        <v>0.82353655373611601</v>
+      </c>
       <c r="U8">
-        <v>0.82730551078039705</v>
-      </c>
-      <c r="V8">
-        <v>0.83483244859028205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.83297147411906602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>42</v>
@@ -2689,35 +2314,35 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
+      <c r="G9" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.95</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2725,25 +2350,25 @@
       <c r="R9" t="s">
         <v>21</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>24</v>
       </c>
+      <c r="T9">
+        <v>0.82517209325882801</v>
+      </c>
       <c r="U9">
-        <v>0.82806189199460301</v>
-      </c>
-      <c r="V9">
-        <v>0.83676393265715898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.83312481449855502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>42</v>
@@ -2752,31 +2377,31 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
         <v>21</v>
@@ -2785,33 +2410,33 @@
         <v>21</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="s">
         <v>21</v>
       </c>
-      <c r="T10" t="s">
+      <c r="S10" t="s">
         <v>24</v>
       </c>
+      <c r="T10">
+        <v>0.82730551078039705</v>
+      </c>
       <c r="U10">
-        <v>0.828107174037225</v>
-      </c>
-      <c r="V10">
-        <v>0.83291418318209398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.83483244859028205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>20230310</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2819,17 +2444,17 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
+      <c r="G11" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -2841,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O11" t="s">
         <v>21</v>
@@ -2850,30 +2475,33 @@
         <v>21</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
         <v>21</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>24</v>
       </c>
+      <c r="T11">
+        <v>0.82922001347640695</v>
+      </c>
       <c r="U11">
-        <v>0.83010336141691399</v>
-      </c>
-      <c r="V11">
-        <v>0.837250164322352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.83539571957582004</v>
+      </c>
+      <c r="W11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>42</v>
@@ -2884,61 +2512,61 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
+      <c r="G12" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
         <v>24</v>
       </c>
+      <c r="T12">
+        <v>0.82806189199460301</v>
+      </c>
       <c r="U12">
-        <v>0.83154189047763805</v>
-      </c>
-      <c r="V12">
-        <v>0.83808171172941703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>0.83676393265715898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>42</v>
@@ -2947,57 +2575,63 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>0.83010336141691399</v>
+      </c>
+      <c r="U13">
+        <v>0.837250164322352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>42</v>
@@ -3008,32 +2642,32 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
+      <c r="G14" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P14" s="3">
         <v>0.95</v>
@@ -3042,57 +2676,63 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>0.83289303776249102</v>
+      </c>
+      <c r="U14">
+        <v>0.83801840090866297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
         <v>42</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
+      <c r="E15">
+        <v>8</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" s="7">
-        <v>5.0000000000000004E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="3">
         <v>0.95</v>
@@ -3101,23 +2741,286 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>91</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15">
+        <v>0.83154189047763805</v>
+      </c>
+      <c r="U15">
+        <v>0.83808171172941703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>20230310</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16">
+        <v>0.83601613901859195</v>
+      </c>
+      <c r="U16">
+        <v>0.83941822081638995</v>
+      </c>
+      <c r="W16">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>0.83107548920996199</v>
+      </c>
+      <c r="U17">
+        <v>0.84001581009226201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18">
+        <v>0.83409652286307601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>20230310</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+      <c r="G30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+      <c r="G31"/>
+      <c r="P31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y13">
-    <sortCondition ref="U2:U13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X32">
+    <sortCondition ref="U2:U32"/>
+    <sortCondition ref="T2:T32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BFED1-49E1-3349-9B9B-BE1CD8BE6B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB9221-1184-C449-BEA7-9EAC97365BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="90">
   <si>
     <t>run name</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>v20240624231703-6c06a4bdcc0faad853a04eaa48d044ac7440d186</t>
+  </si>
+  <si>
+    <t>702eca5a1241311d067b442ff4e3a8736011ed6d</t>
   </si>
 </sst>
 </file>
@@ -2949,8 +2952,11 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>50</v>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB9221-1184-C449-BEA7-9EAC97365BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D89DF-A891-AA4E-8916-8220F8DA1F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>v20240624231703-6c06a4bdcc0faad853a04eaa48d044ac7440d186</t>
   </si>
   <si>
-    <t>702eca5a1241311d067b442ff4e3a8736011ed6d</t>
+    <t>8a82f09595a5dd488d522411a9430f4e49867839</t>
   </si>
 </sst>
 </file>
@@ -803,13 +803,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1315,7 +1314,7 @@
         <v>0.8</v>
       </c>
       <c r="Q5">
-        <f>O5-P5</f>
+        <f t="shared" ref="Q5:Q10" si="0">O5-P5</f>
         <v>2.3134663999999971E-2</v>
       </c>
       <c r="R5" t="s">
@@ -1372,7 +1371,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Q6">
-        <f>O6-P6</f>
+        <f t="shared" si="0"/>
         <v>2.7144897840877924E-2</v>
       </c>
     </row>
@@ -1423,7 +1422,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="Q7">
-        <f>O7-P7</f>
+        <f t="shared" si="0"/>
         <v>2.8144897840877925E-2</v>
       </c>
     </row>
@@ -1474,7 +1473,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="Q8">
-        <f>O8-P8</f>
+        <f t="shared" si="0"/>
         <v>3.1403218999999982E-2</v>
       </c>
       <c r="S8" t="s">
@@ -1528,7 +1527,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Q9">
-        <f>O9-P9</f>
+        <f t="shared" si="0"/>
         <v>3.2704222999999977E-2</v>
       </c>
       <c r="S9" t="s">
@@ -1582,7 +1581,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="Q10">
-        <f>O10-P10</f>
+        <f t="shared" si="0"/>
         <v>9.1310683000000004E-2</v>
       </c>
       <c r="R10" t="s">
@@ -1729,7 +1728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1739,7 @@
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
@@ -1779,7 +1778,7 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -1853,7 +1852,7 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H2" t="s">
@@ -1924,7 +1923,7 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3" t="s">
@@ -1989,7 +1988,7 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H4" t="s">
@@ -2054,7 +2053,7 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H5" t="s">
@@ -2119,7 +2118,7 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H6" t="s">
@@ -2187,7 +2186,7 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H7" t="s">
@@ -2252,7 +2251,7 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H8" t="s">
@@ -2317,7 +2316,7 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H9" t="s">
@@ -2382,7 +2381,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H10" t="s">
@@ -2447,7 +2446,7 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H11" t="s">
@@ -2515,7 +2514,7 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H12" t="s">
@@ -2580,7 +2579,7 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H13" t="s">
@@ -2645,7 +2644,7 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H14" t="s">
@@ -2710,7 +2709,7 @@
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H15" t="s">
@@ -2775,7 +2774,7 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H16" t="s">
@@ -2825,7 +2824,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
       <c r="B17" t="s">
@@ -2843,7 +2842,7 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H17" t="s">
@@ -2893,22 +2892,22 @@
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>42</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="H18" t="s">
@@ -2952,26 +2951,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D19">
         <v>20230310</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1.0000000000000001E-5</v>
+        <v>7</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -3009,9 +3008,9 @@
       <c r="S19" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="T19">
+        <v>0.83428845173115596</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F30" s="1"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D89DF-A891-AA4E-8916-8220F8DA1F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653FF99-D5C2-F44B-A303-5CD1F982EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="91">
   <si>
     <t>run name</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>8a82f09595a5dd488d522411a9430f4e49867839</t>
+  </si>
+  <si>
+    <t>a1eb60cd3bc16a1cb7a4331a009c1c50cfc23d21</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -819,6 +822,7 @@
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1728,7 +1732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21"/>
+      <selection pane="topRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,7 +2893,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3010,6 +3014,42 @@
       </c>
       <c r="T19">
         <v>0.83428845173115596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20">
+        <v>0.83376925902182297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21">
+        <v>0.83624383610592101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/omniverse/learning-agency-lab-automated-essay-scoring-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653FF99-D5C2-F44B-A303-5CD1F982EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B8F5E-6447-8A4C-8241-4F5A305D4160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="94">
   <si>
     <t>run name</t>
   </si>
@@ -309,7 +309,16 @@
     <t>8a82f09595a5dd488d522411a9430f4e49867839</t>
   </si>
   <si>
-    <t>a1eb60cd3bc16a1cb7a4331a009c1c50cfc23d21</t>
+    <t>a1eb60cd3bc16a1cb7a4331a009c1c50cfc23d21-v1</t>
+  </si>
+  <si>
+    <t>a1eb60cd3bc16a1cb7a4331a009c1c50cfc23d21-v2</t>
+  </si>
+  <si>
+    <t>a1eb60cd3bc16a1cb7a4331a009c1c50cfc23d21-v3</t>
+  </si>
+  <si>
+    <t>gradnorm</t>
   </si>
 </sst>
 </file>
@@ -806,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -822,7 +831,6 @@
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1728,1345 +1736,1558 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DFEB0-8383-2943-9F78-E4FE25E99B51}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S21" sqref="S21"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2">
+        <v>0.82041017900000002</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>42</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="T2">
-        <v>0.82041017900000002</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.82805346899999999</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.80300000000000005</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3">
+        <v>0.82213017302515001</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
         <v>24</v>
       </c>
-      <c r="T3">
-        <v>0.82213017302515001</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.82838484814624902</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>0.82215571649418995</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>42</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
         <v>24</v>
       </c>
-      <c r="T4">
-        <v>0.82215571649418995</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.82877975010488003</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
+      <c r="B5">
+        <v>0.82225694830649898</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>42</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
         <v>24</v>
       </c>
-      <c r="T5">
-        <v>0.82225694830649898</v>
-      </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.82890999984462999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>0.82353655373611601</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6">
+        <v>0.83297147411906602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>0.82517209325882801</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.83312481449855502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8">
+        <v>0.825399216993006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="E8">
         <v>42</v>
       </c>
-      <c r="E6">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="I6">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L8" t="s">
         <v>20</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P8" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6">
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
         <v>24</v>
       </c>
-      <c r="T6">
-        <v>0.825399216993006</v>
-      </c>
-      <c r="U6">
+      <c r="V8">
         <v>0.831515</v>
       </c>
-      <c r="W6">
+      <c r="X8">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0.82730551078039705</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.83483244859028205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0.82806189199460301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.83676393265715898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11">
+        <v>0.828107174037225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="E11">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H11" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P11" t="s">
         <v>56</v>
       </c>
-      <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7">
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
         <v>24</v>
       </c>
-      <c r="T7">
-        <v>0.828107174037225</v>
-      </c>
-      <c r="U7">
+      <c r="V11">
         <v>0.83291418318209398</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>0.82922001347640695</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
+      <c r="E12">
+        <v>20230310</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P12" t="s">
         <v>56</v>
       </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" t="s">
         <v>24</v>
       </c>
-      <c r="T8">
-        <v>0.82353655373611601</v>
-      </c>
-      <c r="U8">
-        <v>0.83297147411906602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9">
-        <v>0.82517209325882801</v>
-      </c>
-      <c r="U9">
-        <v>0.83312481449855502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10">
-        <v>0.82730551078039705</v>
-      </c>
-      <c r="U10">
-        <v>0.83483244859028205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>20230310</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11">
-        <v>0.82922001347640695</v>
-      </c>
-      <c r="U11">
+      <c r="V12">
         <v>0.83539571957582004</v>
       </c>
-      <c r="W11">
+      <c r="X12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12">
-        <v>0.82806189199460301</v>
-      </c>
-      <c r="U12">
-        <v>0.83676393265715898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="B13">
+        <v>0.83010336141691399</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>42</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>31</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>56</v>
       </c>
-      <c r="O13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" t="s">
         <v>24</v>
       </c>
-      <c r="T13">
-        <v>0.83010336141691399</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.837250164322352</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>0.83107548920996199</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>31</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
       <c r="K14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>56</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
-        <v>82</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
         <v>24</v>
       </c>
-      <c r="T14">
-        <v>0.83289303776249102</v>
-      </c>
-      <c r="U14">
-        <v>0.83801840090866297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V14">
+        <v>0.84001581009226201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
+      <c r="B15">
+        <v>0.83154189047763805</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>78</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>22</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>56</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>75</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>24</v>
       </c>
-      <c r="T15">
-        <v>0.83154189047763805</v>
-      </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.83808171172941703</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>0.83289303776249102</v>
       </c>
       <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16">
+        <v>0.83801840090866297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>0.83376925902182297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
         <v>20230310</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H17" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>0.1</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
         <v>22</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P17" t="s">
         <v>56</v>
       </c>
-      <c r="O16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16">
-        <v>0.83601613901859195</v>
-      </c>
-      <c r="U16">
-        <v>0.83941822081638995</v>
-      </c>
-      <c r="W16">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>0.83409652286307601</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="E18" s="5">
         <v>42</v>
       </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="G17" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17">
+      <c r="H18" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K18" t="s">
         <v>80</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>44</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O18" t="s">
         <v>22</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P18" t="s">
         <v>56</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q18" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R18" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17">
-        <v>0.83107548920996199</v>
-      </c>
-      <c r="U17">
-        <v>0.84001581009226201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" s="8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T18">
-        <v>0.83409652286307601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19">
+        <v>0.83428845173115596</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20230310</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.1</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="3">
+      <c r="R19" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T19">
-        <v>0.83428845173115596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>0.83574039227500196</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>20230310</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T20">
-        <v>0.83376925902182297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>0.83601613901859195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>20230310</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21">
+        <v>0.83941822081638995</v>
+      </c>
+      <c r="X21">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>0.83624383610592101</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>20230310</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T21">
-        <v>0.83624383610592101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F30" s="1"/>
-      <c r="G30"/>
-      <c r="P30"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F31" s="1"/>
-      <c r="G31"/>
-      <c r="P31"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+      <c r="H30"/>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+      <c r="H31"/>
+      <c r="R31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X32">
-    <sortCondition ref="U2:U32"/>
-    <sortCondition ref="T2:T32"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B8F5E-6447-8A4C-8241-4F5A305D4160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF913D-B5DC-9D42-A7A3-997C2D8D7CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="95">
   <si>
     <t>run name</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>gradnorm</t>
+  </si>
+  <si>
+    <t>6d22bfed7303f89f91ce2f052af725be6f4ac3eb</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3277,6 +3280,11 @@
         <v>54</v>
       </c>
     </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
       <c r="H30"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF913D-B5DC-9D42-A7A3-997C2D8D7CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69AFA8-64E7-B442-B864-149A4654BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="94">
   <si>
     <t>run name</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>gradnorm</t>
-  </si>
-  <si>
-    <t>6d22bfed7303f89f91ce2f052af725be6f4ac3eb</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,11 +3277,6 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
       <c r="H30"/>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaohn/gaohn/learning-agency-lab-automated-essay-scoring-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69AFA8-64E7-B442-B864-149A4654BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F74B7-501D-0A40-8C65-20CC96626BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="21100" activeTab="1" xr2:uid="{78DCD112-02ED-B440-9BA7-48C6A208E221}"/>
   </bookViews>
@@ -815,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -830,6 +830,9 @@
     </xf>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1740,7 +1743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3277,6 +3280,9 @@
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+    </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
       <c r="H30"/>
